--- a/master/input_param.xlsx
+++ b/master/input_param.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Desktop/newfiber/xyb/德阳水质评价/DeyangWaterQualityAssessmentTool/master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.company\德阳\水质评价模块\德阳水质评价code\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0607292B-58DF-524E-B320-65F315F2C5AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFDD3D2-B214-4C3B-9A0B-26769966748D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,6 +430,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,24 +465,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,25 +744,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.5" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="17" thickBot="1"/>
-    <row r="3" spans="3:7" ht="19">
-      <c r="C3" s="8" t="s">
+    <row r="2" spans="3:7" ht="16.5" thickBot="1"/>
+    <row r="3" spans="3:7" ht="20.25">
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="1" t="s">
@@ -775,7 +775,7 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -786,7 +786,7 @@
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -797,7 +797,7 @@
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -808,7 +808,7 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -819,7 +819,7 @@
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -830,7 +830,7 @@
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -841,7 +841,7 @@
       <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -852,7 +852,7 @@
       <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -861,7 +861,7 @@
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="3"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="3:7">
@@ -875,7 +875,7 @@
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -886,27 +886,27 @@
       <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="17" thickBot="1">
+    <row r="17" spans="3:5" ht="16.5" thickBot="1">
       <c r="C17" s="4"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="3:5" ht="19">
-      <c r="C18" s="11" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="3:5" ht="20.25">
+      <c r="C18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
@@ -919,18 +919,18 @@
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="85" customHeight="1">
+    <row r="21" spans="3:5" ht="84.95" customHeight="1">
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -939,7 +939,7 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5">
@@ -953,7 +953,7 @@
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -964,17 +964,17 @@
       <c r="C25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="17" thickBot="1">
+    <row r="26" spans="3:5" ht="16.5" thickBot="1">
       <c r="C26" s="4"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -983,5 +983,6 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/master/input_param.xlsx
+++ b/master/input_param.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.company\德阳\水质评价模块\德阳水质评价code\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFDD3D2-B214-4C3B-9A0B-26769966748D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB09C8-E12E-4692-96C1-81C2F5F7921E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -744,8 +744,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
